--- a/tests/models/features/variables_filtering/input_data/input_data.xlsx
+++ b/tests/models/features/variables_filtering/input_data/input_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\pyesm\tests\fixtures\variables_new_cat\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\pyesm\tests\models\features\variables_filtering\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6904A4A8-5DB0-40C1-9332-4A4F51A85442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770787A2-363C-4F03-9941-B0AE8BD6FBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ex" sheetId="1" r:id="rId1"/>
@@ -26,16 +26,16 @@
     <t>id</t>
   </si>
   <si>
-    <t>c_Name</t>
+    <t>case_Name</t>
   </si>
   <si>
-    <t>y_Name</t>
+    <t>years_Name</t>
   </si>
   <si>
-    <t>t_Name</t>
+    <t>technologies_Name</t>
   </si>
   <si>
-    <t>f_Name</t>
+    <t>flows_Name</t>
   </si>
   <si>
     <t>values</t>
@@ -98,7 +98,7 @@
     <t>y.10</t>
   </si>
   <si>
-    <t>f_agg_Name</t>
+    <t>flows_agg_Name</t>
   </si>
   <si>
     <t>electricity</t>
@@ -466,18 +466,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -3509,8 +3509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="I97" sqref="I97"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="N96" sqref="N96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
